--- a/SummaryStats v3.xlsx
+++ b/SummaryStats v3.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="382">
   <si>
     <t>Labels</t>
   </si>
@@ -312,10 +312,10 @@
     <t>ci_high95</t>
   </si>
   <si>
-    <t>mean.x</t>
-  </si>
-  <si>
-    <t>mean.y</t>
+    <t>MeanPO_before</t>
+  </si>
+  <si>
+    <t>MeanPO_after</t>
   </si>
   <si>
     <t>difference in means is equal to 0</t>
@@ -343,6 +343,12 @@
   </si>
   <si>
     <t>83.608</t>
+  </si>
+  <si>
+    <t>MeanEOD_before</t>
+  </si>
+  <si>
+    <t>MeanEOD_after</t>
   </si>
   <si>
     <t>2.3281</t>
@@ -7131,12 +7137,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1527" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1528" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
@@ -7144,39 +7150,39 @@
         <v>0</v>
       </c>
       <c r="B3" s="1530" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C3" s="1531" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D3" s="1532" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E3" s="1533" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F3" s="1534" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G3" s="1535" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H3" s="1536" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="I3" s="1537" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="J3" s="1538" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K3" s="1539" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1540" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B4" s="1550" t="n">
         <v>1.0</v>
@@ -7211,7 +7217,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1541" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B5" s="1551" t="n">
         <v>0.7357181456345916</v>
@@ -7246,7 +7252,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1542" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B6" s="1552" t="n">
         <v>0.7108285562270158</v>
@@ -7281,7 +7287,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1543" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B7" s="1553" t="n">
         <v>0.579598368853976</v>
@@ -7316,7 +7322,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1544" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B8" s="1554" t="n">
         <v>0.3935595327681875</v>
@@ -7351,7 +7357,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1545" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B9" s="1555" t="n">
         <v>0.18806058482555052</v>
@@ -7386,7 +7392,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1546" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B10" s="1556" t="n">
         <v>-0.007177443517587957</v>
@@ -7421,7 +7427,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1547" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B11" s="1557" t="n">
         <v>-0.19277230070593343</v>
@@ -7456,7 +7462,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1548" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B12" s="1558" t="n">
         <v>-0.1989063603420017</v>
@@ -7491,7 +7497,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1549" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B13" s="1559" t="n">
         <v>-0.3096683161683525</v>
@@ -7539,7 +7545,7 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="1650" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B2" s="1651" t="s">
         <v>89</v>
@@ -7563,15 +7569,15 @@
         <v>95</v>
       </c>
       <c r="I2" s="1658" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="J2" s="1659" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1660" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B3" s="1661" t="s">
         <v>98</v>
@@ -7580,30 +7586,30 @@
         <v>99</v>
       </c>
       <c r="D3" s="1663" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E3" s="1664" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F3" s="1665" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="1666" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="H3" s="1667" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I3" s="1668" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="J3" s="1669" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="1670">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B7" t="s" s="1671">
         <v>89</v>
@@ -7627,15 +7633,15 @@
         <v>95</v>
       </c>
       <c r="I7" t="s" s="1678">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="J7" t="s" s="1679">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="1680">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B8" t="s" s="1681">
         <v>98</v>
@@ -7644,25 +7650,25 @@
         <v>99</v>
       </c>
       <c r="D8" t="s" s="1683">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E8" t="s" s="1684">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F8" t="s" s="1685">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G8" t="s" s="1686">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H8" t="s" s="1687">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="I8" t="s" s="1688">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="J8" t="s" s="1689">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -7876,10 +7882,10 @@
         <v>95</v>
       </c>
       <c r="H7" s="249" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="I7" s="250" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8">
@@ -7890,25 +7896,25 @@
         <v>99</v>
       </c>
       <c r="C8" s="253" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D8" s="254" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E8" s="255" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F8" s="256" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G8" s="257" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H8" s="258" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I8" s="259" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -7918,7 +7924,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7929,7 +7935,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="261" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C1" s="262" t="s">
         <v>2</v>
@@ -7941,25 +7947,25 @@
         <v>4</v>
       </c>
       <c r="F1" s="265" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G1" s="266" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H1" s="267" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I1" s="268" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J1" s="269" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K1" s="270" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L1" s="271" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2">
@@ -8192,7 +8198,7 @@
     </row>
     <row r="8">
       <c r="A8" s="278" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B8" s="285" t="n">
         <v>2766.0</v>
@@ -8230,247 +8236,252 @@
     </row>
     <row r="12">
       <c r="A12" s="356" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="358" t="s">
+      <c r="A13" s="357" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="358" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="359" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="360" t="s">
+      <c r="B14" s="359" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="360" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="367" t="n">
+      <c r="B15" s="367" t="n">
         <v>0.0028054163714605336</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="361" t="s">
+    <row r="16">
+      <c r="A16" s="361" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="368" t="n">
+      <c r="B16" s="368" t="n">
         <v>-0.034364616807833245</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="362" t="s">
+    <row r="17">
+      <c r="A17" s="362" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="369" t="n">
+      <c r="B17" s="369" t="n">
         <v>0.05038143380219988</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="363" t="s">
+    <row r="18">
+      <c r="A18" s="363" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="370" t="n">
+      <c r="B18" s="370" t="n">
         <v>0.03162884497667239</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="364" t="s">
+    <row r="19">
+      <c r="A19" s="364" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="371" t="n">
+      <c r="B19" s="371" t="n">
         <v>-0.0018983448923198007</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="365" t="s">
+    <row r="20">
+      <c r="A20" s="365" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="372" t="n">
+      <c r="B20" s="372" t="n">
         <v>-0.21471168166844604</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="366" t="s">
-        <v>122</v>
-      </c>
-      <c r="B20" s="373" t="n">
+    <row r="21">
+      <c r="A21" s="366" t="s">
+        <v>124</v>
+      </c>
+      <c r="B21" s="373" t="n">
         <v>-0.029773482126634998</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="374" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" s="375" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="376" t="s">
+    <row r="25">
+      <c r="A25" s="374" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="377" t="s">
+      <c r="B25" s="375" t="s">
         <v>129</v>
       </c>
-      <c r="B25" s="392" t="n">
+      <c r="C25" s="376" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="377" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" s="392" t="n">
         <v>0.23963017260364228</v>
       </c>
-      <c r="C25" s="407" t="s">
+      <c r="C26" s="407" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="378" t="s">
+        <v>132</v>
+      </c>
+      <c r="B27" s="393" t="n">
+        <v>0.7745719109128448</v>
+      </c>
+      <c r="C27" s="408" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="379" t="s">
+        <v>133</v>
+      </c>
+      <c r="B28" s="394" t="n">
+        <v>0.03547148000322353</v>
+      </c>
+      <c r="C28" s="409" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="380" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="395" t="n">
+        <v>0.08041678043224332</v>
+      </c>
+      <c r="C29" s="410" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="381" t="s">
+        <v>135</v>
+      </c>
+      <c r="B30" s="396" t="n">
+        <v>0.9987100023291403</v>
+      </c>
+      <c r="C30" s="411" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="382" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="397" t="n">
+        <v>0.9999593631597858</v>
+      </c>
+      <c r="C31" s="412" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="383" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" s="398" t="n">
+        <v>0.30443467898255516</v>
+      </c>
+      <c r="C32" s="413" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="384" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="399" t="n">
+        <v>0.7295371665891544</v>
+      </c>
+      <c r="C33" s="414" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="385" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" s="400" t="n">
+        <v>0.7363290856533323</v>
+      </c>
+      <c r="C34" s="415" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="386" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="401" t="n">
+        <v>0.6235009089633138</v>
+      </c>
+      <c r="C35" s="416" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="387" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="402" t="n">
+        <v>0.9626448153730212</v>
+      </c>
+      <c r="C36" s="417" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="388" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37" s="403" t="n">
+        <v>0.8154695875520281</v>
+      </c>
+      <c r="C37" s="418" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="389" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" s="404" t="n">
+        <v>0.9349675425818298</v>
+      </c>
+      <c r="C38" s="419" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="390" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="378" t="s">
-        <v>130</v>
-      </c>
-      <c r="B26" s="393" t="n">
-        <v>0.7745719109128448</v>
-      </c>
-      <c r="C26" s="408" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="379" t="s">
-        <v>131</v>
-      </c>
-      <c r="B27" s="394" t="n">
-        <v>0.03547148000322353</v>
-      </c>
-      <c r="C27" s="409" t="s">
+      <c r="B39" s="405" t="n">
+        <v>0.10432158261391766</v>
+      </c>
+      <c r="C39" s="420" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="391" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="380" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="395" t="n">
-        <v>0.08041678043224332</v>
-      </c>
-      <c r="C28" s="410" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="381" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="396" t="n">
-        <v>0.9987100023291403</v>
-      </c>
-      <c r="C29" s="411" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="382" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" s="397" t="n">
-        <v>0.9999593631597858</v>
-      </c>
-      <c r="C30" s="412" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="383" t="s">
-        <v>135</v>
-      </c>
-      <c r="B31" s="398" t="n">
-        <v>0.30443467898255516</v>
-      </c>
-      <c r="C31" s="413" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="384" t="s">
-        <v>136</v>
-      </c>
-      <c r="B32" s="399" t="n">
-        <v>0.7295371665891544</v>
-      </c>
-      <c r="C32" s="414" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="385" t="s">
-        <v>137</v>
-      </c>
-      <c r="B33" s="400" t="n">
-        <v>0.7363290856533323</v>
-      </c>
-      <c r="C33" s="415" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="386" t="s">
-        <v>138</v>
-      </c>
-      <c r="B34" s="401" t="n">
-        <v>0.6235009089633138</v>
-      </c>
-      <c r="C34" s="416" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="387" t="s">
-        <v>139</v>
-      </c>
-      <c r="B35" s="402" t="n">
-        <v>0.9626448153730212</v>
-      </c>
-      <c r="C35" s="417" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="388" t="s">
-        <v>140</v>
-      </c>
-      <c r="B36" s="403" t="n">
-        <v>0.8154695875520281</v>
-      </c>
-      <c r="C36" s="418" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="389" t="s">
-        <v>141</v>
-      </c>
-      <c r="B37" s="404" t="n">
-        <v>0.9349675425818298</v>
-      </c>
-      <c r="C37" s="419" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="390" t="s">
-        <v>142</v>
-      </c>
-      <c r="B38" s="405" t="n">
-        <v>0.10432158261391766</v>
-      </c>
-      <c r="C38" s="420" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="391" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" s="406" t="n">
+      <c r="B40" s="406" t="n">
         <v>0.30053313049079633</v>
       </c>
-      <c r="C39" s="421" t="s">
-        <v>144</v>
+      <c r="C40" s="421" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -8593,7 +8604,7 @@
         <v>113.0</v>
       </c>
       <c r="C16" s="451" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
@@ -8604,12 +8615,12 @@
         <v>88.0</v>
       </c>
       <c r="C17" s="452" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="453" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B21" s="454" t="s">
         <v>13</v>
@@ -8626,7 +8637,7 @@
         <v>6.0</v>
       </c>
       <c r="C22" s="514" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23">
@@ -8637,7 +8648,7 @@
         <v>15.0</v>
       </c>
       <c r="C23" s="515" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24">
@@ -8648,7 +8659,7 @@
         <v>5.0</v>
       </c>
       <c r="C24" s="516" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25">
@@ -8659,7 +8670,7 @@
         <v>5.0</v>
       </c>
       <c r="C25" s="517" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26">
@@ -8670,7 +8681,7 @@
         <v>10.0</v>
       </c>
       <c r="C26" s="518" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27">
@@ -8681,7 +8692,7 @@
         <v>7.0</v>
       </c>
       <c r="C27" s="519" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28">
@@ -8692,18 +8703,18 @@
         <v>7.0</v>
       </c>
       <c r="C28" s="520" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="463" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B29" s="492" t="n">
         <v>1.0</v>
       </c>
       <c r="C29" s="521" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30">
@@ -8714,7 +8725,7 @@
         <v>6.0</v>
       </c>
       <c r="C30" s="522" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31">
@@ -8725,7 +8736,7 @@
         <v>9.0</v>
       </c>
       <c r="C31" s="523" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="32">
@@ -8736,7 +8747,7 @@
         <v>9.0</v>
       </c>
       <c r="C32" s="524" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33">
@@ -8747,7 +8758,7 @@
         <v>5.0</v>
       </c>
       <c r="C33" s="525" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34">
@@ -8758,7 +8769,7 @@
         <v>10.0</v>
       </c>
       <c r="C34" s="526" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35">
@@ -8769,7 +8780,7 @@
         <v>16.0</v>
       </c>
       <c r="C35" s="527" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36">
@@ -8791,7 +8802,7 @@
         <v>5.0</v>
       </c>
       <c r="C37" s="529" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38">
@@ -8802,7 +8813,7 @@
         <v>4.0</v>
       </c>
       <c r="C38" s="530" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39">
@@ -8813,7 +8824,7 @@
         <v>9.0</v>
       </c>
       <c r="C39" s="531" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40">
@@ -8824,7 +8835,7 @@
         <v>4.0</v>
       </c>
       <c r="C40" s="532" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41">
@@ -8835,7 +8846,7 @@
         <v>15.0</v>
       </c>
       <c r="C41" s="533" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42">
@@ -8846,18 +8857,18 @@
         <v>5.0</v>
       </c>
       <c r="C42" s="534" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="477" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B43" s="506" t="n">
         <v>3.0</v>
       </c>
       <c r="C43" s="535" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44">
@@ -8868,7 +8879,7 @@
         <v>2.0</v>
       </c>
       <c r="C44" s="536" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45">
@@ -8879,7 +8890,7 @@
         <v>5.0</v>
       </c>
       <c r="C45" s="537" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46">
@@ -8890,7 +8901,7 @@
         <v>5.0</v>
       </c>
       <c r="C46" s="538" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47">
@@ -8901,7 +8912,7 @@
         <v>5.0</v>
       </c>
       <c r="C47" s="539" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48">
@@ -8912,7 +8923,7 @@
         <v>4.0</v>
       </c>
       <c r="C48" s="540" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49">
@@ -8923,7 +8934,7 @@
         <v>6.0</v>
       </c>
       <c r="C49" s="541" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50">
@@ -8934,7 +8945,7 @@
         <v>5.0</v>
       </c>
       <c r="C50" s="542" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54">
@@ -8956,7 +8967,7 @@
         <v>50.0</v>
       </c>
       <c r="C55" s="558" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="56">
@@ -8967,7 +8978,7 @@
         <v>30.0</v>
       </c>
       <c r="C56" s="559" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57">
@@ -8978,7 +8989,7 @@
         <v>44.0</v>
       </c>
       <c r="C57" s="560" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58">
@@ -8989,7 +9000,7 @@
         <v>20.0</v>
       </c>
       <c r="C58" s="561" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59">
@@ -9000,7 +9011,7 @@
         <v>23.0</v>
       </c>
       <c r="C59" s="562" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60">
@@ -9011,12 +9022,12 @@
         <v>34.0</v>
       </c>
       <c r="C60" s="563" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="564" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B64" s="565" t="s">
         <v>13</v>
@@ -9027,40 +9038,40 @@
     </row>
     <row r="65">
       <c r="A65" s="567" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B65" s="570" t="n">
         <v>54.0</v>
       </c>
       <c r="C65" s="573" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="568" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B66" s="571" t="n">
         <v>73.0</v>
       </c>
       <c r="C66" s="574" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="569" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B67" s="572" t="n">
         <v>74.0</v>
       </c>
       <c r="C67" s="575" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="576" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B71" s="577" t="s">
         <v>13</v>
@@ -9077,7 +9088,7 @@
         <v>189.0</v>
       </c>
       <c r="C72" s="582" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73">
@@ -9086,7 +9097,7 @@
         <v>12.0</v>
       </c>
       <c r="C73" s="583" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="77">
@@ -9094,7 +9105,7 @@
         <v>0</v>
       </c>
       <c r="B77" s="585" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78">
@@ -9179,7 +9190,7 @@
     </row>
     <row r="91">
       <c r="A91" s="606" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B91" s="607" t="s">
         <v>13</v>
@@ -9190,68 +9201,68 @@
     </row>
     <row r="92">
       <c r="A92" s="609" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B92" s="615" t="n">
         <v>51.0</v>
       </c>
       <c r="C92" s="622" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="610" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B93" s="616" t="n">
         <v>3.0</v>
       </c>
       <c r="C93" s="623" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="611" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B94" s="617" t="n">
         <v>47.0</v>
       </c>
       <c r="C94" s="624" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="612" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B95" s="618" t="n">
         <v>34.0</v>
       </c>
       <c r="C95" s="625" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="613" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B96" s="619" t="n">
         <v>32.0</v>
       </c>
       <c r="C96" s="626" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="614" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B97" s="620" t="n">
         <v>22.0</v>
       </c>
       <c r="C97" s="627" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98">
@@ -9260,12 +9271,12 @@
         <v>12.0</v>
       </c>
       <c r="C98" s="628" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="629" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B102" s="630" t="s">
         <v>13</v>
@@ -9282,40 +9293,40 @@
         <v>119.0</v>
       </c>
       <c r="C103" s="641" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="633" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B104" s="637" t="n">
         <v>22.0</v>
       </c>
       <c r="C104" s="642" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="634" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B105" s="638" t="n">
         <v>27.0</v>
       </c>
       <c r="C105" s="643" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="635" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B106" s="639" t="n">
         <v>21.0</v>
       </c>
       <c r="C106" s="644" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="107">
@@ -9324,12 +9335,12 @@
         <v>12.0</v>
       </c>
       <c r="C107" s="645" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="646" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B111" s="647" t="s">
         <v>13</v>
@@ -9346,29 +9357,29 @@
         <v>119.0</v>
       </c>
       <c r="C112" s="656" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="650" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B113" s="653" t="n">
         <v>34.0</v>
       </c>
       <c r="C113" s="657" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="651" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B114" s="654" t="n">
         <v>36.0</v>
       </c>
       <c r="C114" s="658" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="115">
@@ -9377,12 +9388,12 @@
         <v>12.0</v>
       </c>
       <c r="C115" s="659" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="660" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B119" s="661" t="s">
         <v>13</v>
@@ -9393,24 +9404,24 @@
     </row>
     <row r="120">
       <c r="A120" s="663" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B120" s="665" t="n">
         <v>6.0</v>
       </c>
       <c r="C120" s="668" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="664" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B121" s="666" t="n">
         <v>110.0</v>
       </c>
       <c r="C121" s="669" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="122">
@@ -9419,12 +9430,12 @@
         <v>85.0</v>
       </c>
       <c r="C122" s="670" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="671" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B126" s="672" t="s">
         <v>13</v>
@@ -9435,13 +9446,13 @@
     </row>
     <row r="127">
       <c r="A127" s="674" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B127" s="675" t="n">
         <v>80.0</v>
       </c>
       <c r="C127" s="677" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="128">
@@ -9450,12 +9461,12 @@
         <v>121.0</v>
       </c>
       <c r="C128" s="678" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="679" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B132" s="680" t="s">
         <v>13</v>
@@ -9466,24 +9477,24 @@
     </row>
     <row r="133">
       <c r="A133" s="682" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B133" s="684" t="n">
         <v>1.0</v>
       </c>
       <c r="C133" s="687" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="683" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B134" s="685" t="n">
         <v>5.0</v>
       </c>
       <c r="C134" s="688" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135">
@@ -9492,12 +9503,12 @@
         <v>195.0</v>
       </c>
       <c r="C135" s="689" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="690" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B139" s="691" t="s">
         <v>13</v>
@@ -9508,29 +9519,29 @@
     </row>
     <row r="140">
       <c r="A140" s="693" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B140" s="695" t="n">
         <v>68.0</v>
       </c>
       <c r="C140" s="697" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="694" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B141" s="696" t="n">
         <v>133.0</v>
       </c>
       <c r="C141" s="698" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="699" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B145" s="700" t="s">
         <v>13</v>
@@ -9547,7 +9558,7 @@
         <v>16.0</v>
       </c>
       <c r="C146" s="705" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147">
@@ -9556,12 +9567,12 @@
         <v>185.0</v>
       </c>
       <c r="C147" s="706" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="707" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B151" s="708" t="s">
         <v>13</v>
@@ -9572,13 +9583,13 @@
     </row>
     <row r="152">
       <c r="A152" s="710" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B152" s="711" t="n">
         <v>9.0</v>
       </c>
       <c r="C152" s="713" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="153">
@@ -9587,7 +9598,7 @@
         <v>192.0</v>
       </c>
       <c r="C153" s="714" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="157">
@@ -9768,7 +9779,7 @@
     </row>
     <row r="185">
       <c r="A185" s="759" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B185" s="760" t="s">
         <v>13</v>
@@ -9779,46 +9790,46 @@
     </row>
     <row r="186">
       <c r="A186" s="762" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B186" s="766" t="n">
         <v>143.0</v>
       </c>
       <c r="C186" s="770" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="763" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B187" s="767" t="n">
         <v>20.0</v>
       </c>
       <c r="C187" s="771" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="764" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B188" s="768" t="n">
         <v>22.0</v>
       </c>
       <c r="C188" s="772" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="765" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B189" s="769" t="n">
         <v>16.0</v>
       </c>
       <c r="C189" s="773" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -9836,17 +9847,17 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="774" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="775" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="776" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B4" s="777" t="s">
         <v>87</v>
@@ -9879,17 +9890,17 @@
     </row>
     <row r="10">
       <c r="A10" s="785" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="786" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="787" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B12" s="788" t="s">
         <v>87</v>
@@ -9922,17 +9933,17 @@
     </row>
     <row r="18">
       <c r="A18" s="796" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="797" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="798" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B20" s="799" t="s">
         <v>87</v>
@@ -9978,17 +9989,17 @@
   <sheetData>
     <row r="2">
       <c r="A2" s="807" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="808" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="809" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B4" s="810" t="s">
         <v>89</v>
@@ -10012,15 +10023,15 @@
         <v>95</v>
       </c>
       <c r="I4" s="817" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J4" s="818" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="819" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B5" s="820" t="s">
         <v>98</v>
@@ -10029,30 +10040,30 @@
         <v>99</v>
       </c>
       <c r="D5" s="822" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E5" s="823" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F5" s="824" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="825" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H5" s="826" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="I5" s="827" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J5" s="828" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="829" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B8" s="830" t="s">
         <v>89</v>
@@ -10076,15 +10087,15 @@
         <v>95</v>
       </c>
       <c r="I8" s="837" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J8" s="838" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="839" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B9" s="840" t="s">
         <v>98</v>
@@ -10093,40 +10104,40 @@
         <v>99</v>
       </c>
       <c r="D9" s="842" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E9" s="843" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F9" s="844" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="845" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H9" s="846" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="I9" s="847" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J9" s="848" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="849" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="850" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="851" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B15" s="852" t="s">
         <v>89</v>
@@ -10150,15 +10161,15 @@
         <v>95</v>
       </c>
       <c r="I15" s="859" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J15" s="860" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="861" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B16" s="862" t="s">
         <v>98</v>
@@ -10167,30 +10178,30 @@
         <v>99</v>
       </c>
       <c r="D16" s="864" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E16" s="865" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F16" s="866" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="867" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="H16" s="868" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I16" s="869" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J16" s="870" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="871" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B19" s="872" t="s">
         <v>89</v>
@@ -10214,15 +10225,15 @@
         <v>95</v>
       </c>
       <c r="I19" s="879" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J19" s="880" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="881" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B20" s="882" t="s">
         <v>98</v>
@@ -10231,40 +10242,40 @@
         <v>99</v>
       </c>
       <c r="D20" s="884" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E20" s="885" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F20" s="886" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="887" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H20" s="888" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="I20" s="889" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J20" s="890" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="891" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="892" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="893" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B26" s="894" t="s">
         <v>89</v>
@@ -10288,15 +10299,15 @@
         <v>95</v>
       </c>
       <c r="I26" s="901" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="J26" s="902" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="903" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B27" s="904" t="s">
         <v>98</v>
@@ -10305,30 +10316,30 @@
         <v>99</v>
       </c>
       <c r="D27" s="906" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E27" s="907" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F27" s="908" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="909" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H27" s="910" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="I27" s="911" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J27" s="912" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="913" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B30" s="914" t="s">
         <v>89</v>
@@ -10352,15 +10363,15 @@
         <v>95</v>
       </c>
       <c r="I30" s="921" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="J30" s="922" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="923" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B31" s="924" t="s">
         <v>98</v>
@@ -10369,25 +10380,25 @@
         <v>99</v>
       </c>
       <c r="D31" s="926" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E31" s="927" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F31" s="928" t="s">
         <v>20</v>
       </c>
       <c r="G31" s="929" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="H31" s="930" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="I31" s="931" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J31" s="932" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -10510,7 +10521,7 @@
         <v>30.0</v>
       </c>
       <c r="C16" s="962" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17">
@@ -10521,12 +10532,12 @@
         <v>90.0</v>
       </c>
       <c r="C17" s="963" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="964" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B21" s="965" t="s">
         <v>13</v>
@@ -10537,51 +10548,51 @@
     </row>
     <row r="22">
       <c r="A22" s="967" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B22" s="971" t="n">
         <v>58.0</v>
       </c>
       <c r="C22" s="975" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="968" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B23" s="972" t="n">
         <v>36.0</v>
       </c>
       <c r="C23" s="976" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="969" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B24" s="973" t="n">
         <v>8.0</v>
       </c>
       <c r="C24" s="977" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="970" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B25" s="974" t="n">
         <v>18.0</v>
       </c>
       <c r="C25" s="978" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="979" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B29" s="980" t="s">
         <v>13</v>
@@ -10598,56 +10609,56 @@
         <v>16.0</v>
       </c>
       <c r="C30" s="994" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="983" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B31" s="989" t="n">
         <v>46.0</v>
       </c>
       <c r="C31" s="995" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="984" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B32" s="990" t="n">
         <v>36.0</v>
       </c>
       <c r="C32" s="996" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="985" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B33" s="991" t="n">
         <v>12.0</v>
       </c>
       <c r="C33" s="997" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="986" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B34" s="992" t="n">
         <v>6.0</v>
       </c>
       <c r="C34" s="998" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="987" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B35" s="993" t="n">
         <v>4.0</v>
@@ -10658,7 +10669,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1000" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B39" s="1001" t="s">
         <v>13</v>
@@ -10675,7 +10686,7 @@
         <v>37.0</v>
       </c>
       <c r="C40" s="1023" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="41">
@@ -10686,7 +10697,7 @@
         <v>22.0</v>
       </c>
       <c r="C41" s="1024" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="42">
@@ -10697,7 +10708,7 @@
         <v>2.0</v>
       </c>
       <c r="C42" s="1025" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43">
@@ -10708,7 +10719,7 @@
         <v>34.0</v>
       </c>
       <c r="C43" s="1026" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="44">
@@ -10719,7 +10730,7 @@
         <v>19.0</v>
       </c>
       <c r="C44" s="1027" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45">
@@ -10730,7 +10741,7 @@
         <v>2.0</v>
       </c>
       <c r="C45" s="1028" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46">
@@ -10741,7 +10752,7 @@
         <v>1.0</v>
       </c>
       <c r="C46" s="1029" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47">
@@ -10752,7 +10763,7 @@
         <v>1.0</v>
       </c>
       <c r="C47" s="1030" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="48">
@@ -10763,7 +10774,7 @@
         <v>1.0</v>
       </c>
       <c r="C48" s="1031" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="49">
@@ -10774,12 +10785,12 @@
         <v>1.0</v>
       </c>
       <c r="C49" s="1032" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1033" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B53" s="1034" t="s">
         <v>13</v>
@@ -10796,7 +10807,7 @@
         <v>57.0</v>
       </c>
       <c r="C54" s="1039" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="55">
@@ -10805,12 +10816,12 @@
         <v>63.0</v>
       </c>
       <c r="C55" s="1040" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1041" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B59" s="1042" t="s">
         <v>13</v>
@@ -10827,7 +10838,7 @@
         <v>12.0</v>
       </c>
       <c r="C60" s="1047" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="61">
@@ -10836,12 +10847,12 @@
         <v>108.0</v>
       </c>
       <c r="C61" s="1048" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1049" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B65" s="1050" t="s">
         <v>13</v>
@@ -10856,12 +10867,12 @@
         <v>120.0</v>
       </c>
       <c r="C66" s="1053" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1054" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B70" s="1055" t="s">
         <v>13</v>
@@ -10878,7 +10889,7 @@
         <v>1.0</v>
       </c>
       <c r="C71" s="1060" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="72">
@@ -10887,12 +10898,12 @@
         <v>119.0</v>
       </c>
       <c r="C72" s="1061" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1062" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B76" s="1063" t="s">
         <v>13</v>
@@ -10909,7 +10920,7 @@
         <v>11.0</v>
       </c>
       <c r="C77" s="1068" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="78">
@@ -10918,12 +10929,12 @@
         <v>109.0</v>
       </c>
       <c r="C78" s="1069" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1070" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B82" s="1071" t="s">
         <v>13</v>
@@ -10940,7 +10951,7 @@
         <v>13.0</v>
       </c>
       <c r="C83" s="1076" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="84">
@@ -10949,12 +10960,12 @@
         <v>107.0</v>
       </c>
       <c r="C84" s="1077" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1078" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B88" s="1079" t="s">
         <v>13</v>
@@ -10971,7 +10982,7 @@
         <v>17.0</v>
       </c>
       <c r="C89" s="1084" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="90">
@@ -10980,12 +10991,12 @@
         <v>103.0</v>
       </c>
       <c r="C90" s="1085" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1086" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B94" s="1087" t="s">
         <v>13</v>
@@ -11002,7 +11013,7 @@
         <v>7.0</v>
       </c>
       <c r="C95" s="1092" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="96">
@@ -11011,12 +11022,12 @@
         <v>113.0</v>
       </c>
       <c r="C96" s="1093" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1094" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B100" s="1095" t="s">
         <v>13</v>
@@ -11031,12 +11042,12 @@
         <v>120.0</v>
       </c>
       <c r="C101" s="1098" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1099" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B105" s="1100" t="s">
         <v>13</v>
@@ -11053,7 +11064,7 @@
         <v>1.0</v>
       </c>
       <c r="C106" s="1105" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="107">
@@ -11062,12 +11073,12 @@
         <v>119.0</v>
       </c>
       <c r="C107" s="1106" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1107" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B111" s="1108" t="s">
         <v>13</v>
@@ -11084,7 +11095,7 @@
         <v>24.0</v>
       </c>
       <c r="C112" s="1113" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="113">
@@ -11093,7 +11104,7 @@
         <v>96.0</v>
       </c>
       <c r="C113" s="1114" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="117">
@@ -11101,7 +11112,7 @@
         <v>0</v>
       </c>
       <c r="B117" s="1116" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="118">
@@ -11186,7 +11197,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1137" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B131" s="1138" t="s">
         <v>13</v>
@@ -11197,13 +11208,13 @@
     </row>
     <row r="132">
       <c r="A132" s="1140" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B132" s="1141" t="n">
         <v>24.0</v>
       </c>
       <c r="C132" s="1143" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="133">
@@ -11212,12 +11223,12 @@
         <v>96.0</v>
       </c>
       <c r="C133" s="1144" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1145" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B137" s="1146" t="s">
         <v>13</v>
@@ -11234,12 +11245,12 @@
         <v>120.0</v>
       </c>
       <c r="C138" s="1150" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1151" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B142" s="1152" t="s">
         <v>13</v>
@@ -11250,29 +11261,29 @@
     </row>
     <row r="143">
       <c r="A143" s="1154" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B143" s="1156" t="n">
         <v>20.0</v>
       </c>
       <c r="C143" s="1158" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1155" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B144" s="1157" t="n">
         <v>100.0</v>
       </c>
       <c r="C144" s="1159" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1160" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B148" s="1161" t="s">
         <v>13</v>
@@ -11283,40 +11294,40 @@
     </row>
     <row r="149">
       <c r="A149" s="1163" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B149" s="1166" t="n">
         <v>8.0</v>
       </c>
       <c r="C149" s="1169" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1164" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B150" s="1167" t="n">
         <v>12.0</v>
       </c>
       <c r="C150" s="1170" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1165" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B151" s="1168" t="n">
         <v>100.0</v>
       </c>
       <c r="C151" s="1171" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1172" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B155" s="1173" t="s">
         <v>13</v>
@@ -11333,12 +11344,12 @@
         <v>120.0</v>
       </c>
       <c r="C156" s="1177" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1178" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B160" s="1179" t="s">
         <v>13</v>
@@ -11355,7 +11366,7 @@
         <v>119.0</v>
       </c>
       <c r="C161" s="1185" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="162">
@@ -11366,12 +11377,12 @@
         <v>1.0</v>
       </c>
       <c r="C162" s="1186" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1187" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B166" s="1188" t="s">
         <v>13</v>
@@ -11388,7 +11399,7 @@
         <v>119.0</v>
       </c>
       <c r="C167" s="1194" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="168">
@@ -11399,7 +11410,7 @@
         <v>1.0</v>
       </c>
       <c r="C168" s="1195" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="172">
@@ -11407,7 +11418,7 @@
         <v>0</v>
       </c>
       <c r="B172" s="1197" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="173">
@@ -11495,7 +11506,7 @@
         <v>0</v>
       </c>
       <c r="B186" s="1219" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="187">
@@ -11583,7 +11594,7 @@
         <v>0</v>
       </c>
       <c r="B200" s="1241" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="201">
@@ -11671,7 +11682,7 @@
         <v>0</v>
       </c>
       <c r="B214" s="1263" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="215">
@@ -11759,7 +11770,7 @@
         <v>0</v>
       </c>
       <c r="B228" s="1285" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="229">
@@ -11847,7 +11858,7 @@
         <v>0</v>
       </c>
       <c r="B242" s="1307" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="243">
@@ -11935,7 +11946,7 @@
         <v>0</v>
       </c>
       <c r="B256" s="1329" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="257">
@@ -12023,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="B270" s="1351" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="271">
@@ -12111,7 +12122,7 @@
         <v>0</v>
       </c>
       <c r="B284" s="1373" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="285">
@@ -12199,7 +12210,7 @@
         <v>0</v>
       </c>
       <c r="B298" s="1395" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="299">
@@ -12402,7 +12413,7 @@
         <v>60.0</v>
       </c>
       <c r="C16" s="1445" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17">
@@ -12413,12 +12424,12 @@
         <v>66.0</v>
       </c>
       <c r="C17" s="1446" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1447" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B21" s="1448" t="s">
         <v>13</v>
@@ -12435,7 +12446,7 @@
         <v>34.0</v>
       </c>
       <c r="C22" s="1458" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23">
@@ -12446,7 +12457,7 @@
         <v>29.0</v>
       </c>
       <c r="C23" s="1459" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24">
@@ -12457,7 +12468,7 @@
         <v>37.0</v>
       </c>
       <c r="C24" s="1460" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25">
@@ -12468,12 +12479,12 @@
         <v>26.0</v>
       </c>
       <c r="C25" s="1461" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1462" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B29" s="1463" t="s">
         <v>13</v>
@@ -12484,29 +12495,29 @@
     </row>
     <row r="30">
       <c r="A30" s="1465" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B30" s="1467" t="n">
         <v>51.0</v>
       </c>
       <c r="C30" s="1469" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1466" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B31" s="1468" t="n">
         <v>75.0</v>
       </c>
       <c r="C31" s="1470" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1471" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B35" s="1472" t="s">
         <v>13</v>
@@ -12517,35 +12528,35 @@
     </row>
     <row r="36">
       <c r="A36" s="1474" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B36" s="1477" t="n">
         <v>14.0</v>
       </c>
       <c r="C36" s="1480" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1475" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B37" s="1478" t="n">
         <v>39.0</v>
       </c>
       <c r="C37" s="1481" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1476" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B38" s="1479" t="n">
         <v>73.0</v>
       </c>
       <c r="C38" s="1482" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42">
